--- a/Stocks/AMD.xlsx
+++ b/Stocks/AMD.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="894" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E714CEE9-B7DC-4070-A8A0-EE937E716F8A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="896" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7F29C1B-8B72-4E9F-A9E4-1AA79A150FE1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,12 +627,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>2</v>
       </c>
@@ -646,7 +651,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>3</v>
       </c>
@@ -655,7 +660,7 @@
         <v>194640</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>4</v>
       </c>
@@ -664,7 +669,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>5</v>
       </c>
@@ -672,7 +677,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>6</v>
       </c>
@@ -692,18 +697,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>7</v>
       </c>
@@ -711,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -807,7 +812,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -882,7 +887,7 @@
         <v>257779.41131591797</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -947,7 +952,7 @@
         <v>19590.227007864265</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -967,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>9338.0416919071122</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>6882.5580305783387</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1137,6 +1142,12 @@
       </c>
       <c r="L9">
         <v>650</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.1</v>
       </c>
       <c r="T9">
         <f>+SUM(H9:L9)</f>
@@ -1187,7 +1198,7 @@
         <v>2782.4768565833001</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1203,8 +1214,15 @@
       <c r="L10">
         <v>372</v>
       </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="3">
+        <f>+NPV(P9,T22:AE22)-S36</f>
+        <v>214272.31663466609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1220,8 +1238,15 @@
       <c r="L11">
         <v>-10</v>
       </c>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="1">
+        <f>+P10/main!M3</f>
+        <v>132.10377104480031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1241,12 +1266,19 @@
         <f>+L7-L8-L9-L10-L11</f>
         <v>269</v>
       </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="2">
+        <f>+P11/main!M2-1</f>
+        <v>0.10086475870666933</v>
+      </c>
       <c r="T12">
         <f>+T6-T8-T9</f>
         <v>-1917</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1275,47 +1307,47 @@
         <v>119.97098935000004</v>
       </c>
       <c r="V13">
-        <f>+U36*0.1</f>
+        <f t="shared" ref="V13:AE13" si="7">+U36*0.1</f>
         <v>2438.0782497250011</v>
       </c>
       <c r="W13">
-        <f>+V36*0.1</f>
+        <f t="shared" si="7"/>
         <v>3688.4437048850014</v>
       </c>
       <c r="X13">
-        <f>+W36*0.1</f>
+        <f t="shared" si="7"/>
         <v>5182.6169850175029</v>
       </c>
       <c r="Y13">
-        <f>+X36*0.1</f>
+        <f t="shared" si="7"/>
         <v>7045.6346356385038</v>
       </c>
       <c r="Z13">
-        <f>+Y36*0.1</f>
+        <f t="shared" si="7"/>
         <v>9426.9139847612551</v>
       </c>
       <c r="AA13">
-        <f>+Z36*0.1</f>
+        <f t="shared" si="7"/>
         <v>12512.756797447857</v>
       </c>
       <c r="AB13">
-        <f>+AA36*0.1</f>
+        <f t="shared" si="7"/>
         <v>16541.291008610584</v>
       </c>
       <c r="AC13">
-        <f>+AB36*0.1</f>
+        <f t="shared" si="7"/>
         <v>21821.1008995181</v>
       </c>
       <c r="AD13">
-        <f>+AC36*0.1</f>
+        <f t="shared" si="7"/>
         <v>28755.039891286673</v>
       </c>
       <c r="AE13">
-        <f>+AD36*0.1</f>
+        <f t="shared" si="7"/>
         <v>37871.088973007056</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1339,7 +1371,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1358,7 +1390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1382,7 +1414,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1403,7 +1435,7 @@
         <v>0.15945611866501855</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1420,12 +1452,12 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1437,19 +1469,19 @@
         <v>1100</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:G22" si="7">+C22*1.1</f>
+        <f t="shared" ref="D22:G22" si="8">+C22*1.1</f>
         <v>1210</v>
       </c>
       <c r="E22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1331</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1464.1000000000001</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1610.5100000000002</v>
       </c>
       <c r="H22">
@@ -1477,51 +1509,51 @@
         <v>9173.0989350000036</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22:AE22" si="8">+T22*1.35</f>
+        <f t="shared" ref="U22" si="9">+T22*1.35</f>
         <v>12383.683562250006</v>
       </c>
       <c r="V22">
-        <f>+U22+U13</f>
+        <f t="shared" ref="V22:AE22" si="10">+U22+U13</f>
         <v>12503.654551600006</v>
       </c>
       <c r="W22">
-        <f>+V22+V13</f>
+        <f t="shared" si="10"/>
         <v>14941.732801325008</v>
       </c>
       <c r="X22">
-        <f>+W22+W13</f>
+        <f t="shared" si="10"/>
         <v>18630.176506210009</v>
       </c>
       <c r="Y22">
-        <f>+X22+X13</f>
+        <f t="shared" si="10"/>
         <v>23812.793491227512</v>
       </c>
       <c r="Z22">
-        <f>+Y22+Y13</f>
+        <f t="shared" si="10"/>
         <v>30858.428126866016</v>
       </c>
       <c r="AA22">
-        <f>+Z22+Z13</f>
+        <f t="shared" si="10"/>
         <v>40285.342111627273</v>
       </c>
       <c r="AB22">
-        <f>+AA22+AA13</f>
+        <f t="shared" si="10"/>
         <v>52798.098909075132</v>
       </c>
       <c r="AC22">
-        <f>+AB22+AB13</f>
+        <f t="shared" si="10"/>
         <v>69339.389917685708</v>
       </c>
       <c r="AD22">
-        <f>+AC22+AC13</f>
+        <f t="shared" si="10"/>
         <v>91160.490817203812</v>
       </c>
       <c r="AE22">
-        <f>+AD22+AD13</f>
+        <f t="shared" si="10"/>
         <v>119915.53070849049</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1562,7 @@
         <v>0.75480894117934838</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1538,101 +1570,66 @@
         <v>1618</v>
       </c>
       <c r="R24" s="2">
-        <f>+R22/R3</f>
+        <f t="shared" ref="R24:AE24" si="11">+R22/R3</f>
         <v>0.46410000000000001</v>
       </c>
       <c r="S24" s="2">
-        <f>+S22/S3</f>
+        <f t="shared" si="11"/>
         <v>0.48534915000000012</v>
       </c>
       <c r="T24" s="2">
-        <f>+T22/T3</f>
+        <f t="shared" si="11"/>
         <v>0.50401642500000021</v>
       </c>
       <c r="U24" s="2">
-        <f>+U22/U3</f>
+        <f t="shared" si="11"/>
         <v>0.52340167211538491</v>
       </c>
       <c r="V24" s="2">
-        <f>+V22/V3</f>
+        <f t="shared" si="11"/>
         <v>0.40651715168736607</v>
       </c>
       <c r="W24" s="2">
-        <f>+W22/W3</f>
+        <f t="shared" si="11"/>
         <v>0.37367971312841708</v>
       </c>
       <c r="X24" s="2">
-        <f>+X22/X3</f>
+        <f t="shared" si="11"/>
         <v>0.35840344237589045</v>
       </c>
       <c r="Y24" s="2">
-        <f>+Y22/Y3</f>
+        <f t="shared" si="11"/>
         <v>0.35238888068742003</v>
       </c>
       <c r="Z24" s="2">
-        <f>+Z22/Z3</f>
+        <f t="shared" si="11"/>
         <v>0.36532184101476345</v>
       </c>
       <c r="AA24" s="2">
-        <f>+AA22/AA3</f>
+        <f t="shared" si="11"/>
         <v>0.38153895034766766</v>
       </c>
       <c r="AB24" s="2">
-        <f>+AB22/AB3</f>
+        <f t="shared" si="11"/>
         <v>0.4000369401317645</v>
       </c>
       <c r="AC24" s="2">
-        <f>+AC22/AC3</f>
+        <f t="shared" si="11"/>
         <v>0.42029266881056654</v>
       </c>
       <c r="AD24" s="2">
-        <f>+AD22/AD3</f>
+        <f t="shared" si="11"/>
         <v>0.44204699258101021</v>
       </c>
       <c r="AE24" s="2">
-        <f>+AE22/AE3</f>
+        <f t="shared" si="11"/>
         <v>0.46518661089473001</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="H26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="3">
-        <f>+NPV(M25,T22:AE22)-S36</f>
-        <v>214272.31663466609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="H27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="1">
-        <f>+M26/main!M3</f>
-        <v>132.10377104480031</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="2">
-        <f>+M27/main!M2-1</f>
-        <v>0.10086475870666933</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1641,7 +1638,7 @@
         <v>-7.6034482758620681E-2</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" ref="K30" si="9">+K3/J3-1</f>
+        <f t="shared" ref="K30" si="12">+K3/J3-1</f>
         <v>0.27243888785221126</v>
       </c>
       <c r="L30" s="2">
@@ -1650,16 +1647,16 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" ref="J31:L31" si="10">+J$7/$L$3</f>
+        <f t="shared" ref="J31:K31" si="13">+J$7/$L$3</f>
         <v>0.41868037703513283</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58594687232219367</v>
       </c>
       <c r="L31" s="2">
@@ -1672,60 +1669,60 @@
         <v>0</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" ref="T31:AD31" si="11">+T$7/$L$3</f>
+        <f t="shared" ref="T31:AD31" si="14">+T$7/$L$3</f>
         <v>0</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" ref="J32:L32" si="12">+J8/J3</f>
+        <f t="shared" ref="J32:K32" si="15">+J8/J3</f>
         <v>0.26926665422653479</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.23991787652148408</v>
       </c>
       <c r="L32" s="2">
@@ -1737,60 +1734,60 @@
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" ref="T32:AD32" si="13">+T8/T3</f>
+        <f t="shared" ref="T32:AD32" si="16">+T8/T3</f>
         <v>0.33895604395604395</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.2633427726120034</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.20459707718317188</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.15895619073461814</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.12349673280151102</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.5947461638097031E-2</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7.7525549003582397E-2</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.2640643594894588E-2</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.0613640024674819E-2</v>
       </c>
       <c r="AC32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.0895821139937255E-2</v>
       </c>
       <c r="AD32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.3043823481069302E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" ref="J33:L33" si="14">+J9/J3</f>
+        <f t="shared" ref="J33:K33" si="17">+J9/J3</f>
         <v>0.10207128195558873</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.10573397858923596</v>
       </c>
       <c r="L33" s="2">
@@ -1802,51 +1799,51 @@
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" ref="T33:AD33" si="15">+T9/T3</f>
+        <f t="shared" ref="T33:AD33" si="18">+T9/T3</f>
         <v>0.13703296703296702</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.10646407438715132</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.2714396254632949E-2</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.4262723243984063E-2</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.9927192674172234E-2</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.87895881545492E-2</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.1341987228875753E-2</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.5324325680931608E-2</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.046205515019274E-2</v>
       </c>
       <c r="AC33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6533340561355733E-2</v>
       </c>
       <c r="AD33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3358939173575434E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1865,60 +1862,60 @@
         <v>0.4641000000000004</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ref="T34:AD34" si="16">+T22/S22-1</f>
+        <f t="shared" ref="T34:AD34" si="19">+T22/S22-1</f>
         <v>0.35000000000000009</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9.6878274341340997E-3</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.19498925211533602</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.24685515086696741</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.27818399805766614</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.29587602303921523</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.30548911778672161</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.3106032155014613</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.31329330696350888</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.3146999263394501</v>
       </c>
       <c r="AE34" s="2">
-        <f t="shared" ref="T34:AE34" si="17">+AE22/AD22-1</f>
+        <f t="shared" ref="AE34" si="20">+AE22/AD22-1</f>
         <v>0.31543314031674807</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="T35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1935,51 +1932,51 @@
         <v>11997.098935000004</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36:AE36" si="18">+T36+U22</f>
+        <f t="shared" ref="U36:AE36" si="21">+T36+U22</f>
         <v>24380.782497250009</v>
       </c>
       <c r="V36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>36884.437048850014</v>
       </c>
       <c r="W36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>51826.169850175022</v>
       </c>
       <c r="X36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>70456.346356385038</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>94269.139847612547</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>125127.56797447856</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>165412.91008610584</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>218211.00899518098</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>287550.39891286672</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>378710.88973007054</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>498626.42043856101</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1991,7 +1988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1999,7 +1996,7 @@
         <v>7241</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2007,7 +2004,7 @@
         <v>5374</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2015,7 +2012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2031,7 +2028,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2039,7 +2036,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -2048,7 +2045,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2064,7 +2061,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2072,7 +2069,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2081,7 +2078,7 @@
         <v>69636</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2086,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2097,7 +2094,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2105,7 +2102,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2113,7 +2110,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2121,7 +2118,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>11771</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2147,7 +2144,7 @@
         <v>57865</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
